--- a/mosip_master/xlsx/user_detail_h.xlsx
+++ b/mosip_master/xlsx/user_detail_h.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Belize\IJ-CODE\mosip-data\mosip_master\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C92E416-2A70-4DDD-932C-BE3C5FA6E206}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FA1F992-546E-412C-A136-9CC1B16208C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>lang_code</t>
   </si>
@@ -33,18 +33,9 @@
     <t>id</t>
   </si>
   <si>
-    <t>uin</t>
-  </si>
-  <si>
     <t>name</t>
   </si>
   <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>mobile</t>
-  </si>
-  <si>
     <t>status_code</t>
   </si>
   <si>
@@ -67,9 +58,6 @@
   </si>
   <si>
     <t>Ganesh Taru</t>
-  </si>
-  <si>
-    <t>ganesh@gmail.com</t>
   </si>
   <si>
     <t>10001</t>
@@ -85,7 +73,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -97,14 +85,6 @@
       <b/>
       <sz val="11"/>
       <name val="Cambria"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
       <charset val="1"/>
     </font>
   </fonts>
@@ -140,11 +120,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -153,10 +132,8 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -469,26 +446,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="8.44140625" style="1"/>
-    <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.109375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="8.44140625" style="1"/>
-    <col min="11" max="11" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.44140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.44140625" style="1"/>
+    <col min="8" max="8" width="10.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -501,58 +476,40 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="B2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="C2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="E2" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" t="s">
+      <c r="H2" t="s">
         <v>13</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2">
-        <v>9999999999</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>17</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1" xr:uid="{180F5A14-06AE-4274-8008-1D5F56950DF3}"/>
-  </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
